--- a/DataInfo/Deans.xlsx
+++ b/DataInfo/Deans.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\作业\大三上\数据库\大作业\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>dean_id</t>
   </si>
@@ -68,16 +63,17 @@
   </si>
   <si>
     <t>zaozao@edu.scut.com</t>
+  </si>
+  <si>
+    <t>5317823891725</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_ "/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,10 +116,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -186,7 +182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -221,7 +217,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -398,33 +394,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,14 +449,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>5317823891725</v>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>666666</v>
       </c>
       <c r="D2" t="s">
@@ -472,10 +468,10 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>28567</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>14684625683</v>
       </c>
       <c r="I2" t="s">

--- a/DataInfo/Deans.xlsx
+++ b/DataInfo/Deans.xlsx
@@ -394,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
